--- a/halp/notebook/data/lenet_test_acc_all.xlsx
+++ b/halp/notebook/data/lenet_test_acc_all.xlsx
@@ -2302,11 +2302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635614752"/>
-        <c:axId val="635618816"/>
+        <c:axId val="454471024"/>
+        <c:axId val="518610448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635614752"/>
+        <c:axId val="454471024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635618816"/>
+        <c:crossAx val="518610448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +2412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635618816"/>
+        <c:axId val="518610448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.62"/>
@@ -2529,7 +2529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635614752"/>
+        <c:crossAx val="454471024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3163,10 +3163,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3477,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
